--- a/wiring_connections.xlsx
+++ b/wiring_connections.xlsx
@@ -10,7 +10,6 @@
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="conns" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="87">
   <si>
     <t>GS MODULE</t>
   </si>
@@ -275,6 +274,18 @@
   </si>
   <si>
     <t>NEUT</t>
+  </si>
+  <si>
+    <t>DEUTSCH CONTACT SIZE</t>
+  </si>
+  <si>
+    <t>Size 20</t>
+  </si>
+  <si>
+    <t>Size 8</t>
+  </si>
+  <si>
+    <t>POSS CONS</t>
   </si>
 </sst>
 </file>
@@ -298,7 +309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,12 +370,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -378,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -393,7 +398,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,10 +681,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,21 +1065,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection sqref="A1:F50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1091,8 +1092,14 @@
       <c r="F1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1111,8 +1118,11 @@
       <c r="F2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1131,8 +1141,11 @@
       <c r="F3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1151,8 +1164,11 @@
       <c r="F4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1171,8 +1187,11 @@
       <c r="F5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1191,8 +1210,11 @@
       <c r="F6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1211,8 +1233,11 @@
       <c r="F7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1231,8 +1256,11 @@
       <c r="F8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1251,8 +1279,11 @@
       <c r="F9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1271,8 +1302,11 @@
       <c r="F10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1291,8 +1325,11 @@
       <c r="F11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1311,8 +1348,11 @@
       <c r="F12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1331,8 +1371,11 @@
       <c r="F13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1351,8 +1394,11 @@
       <c r="F15" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1371,8 +1417,11 @@
       <c r="F16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1391,8 +1440,11 @@
       <c r="F17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1411,8 +1463,11 @@
       <c r="F18" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1431,8 +1486,11 @@
       <c r="F19" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="F20" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1471,8 +1532,11 @@
       <c r="F21" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1491,8 +1555,11 @@
       <c r="F22" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1511,8 +1578,11 @@
       <c r="F23" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1531,8 +1601,11 @@
       <c r="F24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1551,8 +1624,11 @@
       <c r="F25" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1571,8 +1647,11 @@
       <c r="F26" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1591,8 +1670,11 @@
       <c r="F28" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -1611,8 +1693,11 @@
       <c r="F29" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1631,8 +1716,11 @@
       <c r="F30" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -1651,8 +1739,11 @@
       <c r="F31" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -1671,8 +1762,11 @@
       <c r="F32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -1685,14 +1779,17 @@
       <c r="D33" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>82</v>
+      <c r="E33" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="F33" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1711,8 +1808,11 @@
       <c r="F34" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -1726,13 +1826,16 @@
         <v>61</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -1751,8 +1854,11 @@
       <c r="F36" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -1771,8 +1877,11 @@
       <c r="F37" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -1791,8 +1900,11 @@
       <c r="F38" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -1811,8 +1923,11 @@
       <c r="F39" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1831,8 +1946,11 @@
       <c r="F41" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1851,8 +1969,11 @@
       <c r="F42" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1871,8 +1992,11 @@
       <c r="F43" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1883,7 +2007,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1902,11 +2026,14 @@
       <c r="F46" t="s">
         <v>76</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G46" t="s">
+        <v>85</v>
+      </c>
+      <c r="H46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1925,8 +2052,11 @@
       <c r="F47" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>

--- a/wiring_connections.xlsx
+++ b/wiring_connections.xlsx
@@ -15,6 +15,9 @@
     <sheet name="conns" sheetId="1" r:id="rId1"/>
     <sheet name="connectors" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">connectors!$A$1:$H$49</definedName>
+  </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -309,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,6 +373,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -383,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -398,6 +407,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1065,10 +1075,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,6 +1134,7 @@
       <c r="G2" t="s">
         <v>84</v>
       </c>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1144,6 +1158,7 @@
       <c r="G3" t="s">
         <v>84</v>
       </c>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1167,6 +1182,7 @@
       <c r="G4" t="s">
         <v>84</v>
       </c>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1190,6 +1206,7 @@
       <c r="G5" t="s">
         <v>84</v>
       </c>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1213,6 +1230,7 @@
       <c r="G6" t="s">
         <v>84</v>
       </c>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1236,6 +1254,7 @@
       <c r="G7" t="s">
         <v>84</v>
       </c>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1259,6 +1278,7 @@
       <c r="G8" t="s">
         <v>84</v>
       </c>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1282,6 +1302,7 @@
       <c r="G9" t="s">
         <v>84</v>
       </c>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1305,6 +1326,7 @@
       <c r="G10" t="s">
         <v>84</v>
       </c>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1328,6 +1350,7 @@
       <c r="G11" t="s">
         <v>84</v>
       </c>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1351,6 +1374,7 @@
       <c r="G12" t="s">
         <v>84</v>
       </c>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1374,6 +1398,7 @@
       <c r="G13" t="s">
         <v>84</v>
       </c>
+      <c r="H13" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1397,6 +1422,7 @@
       <c r="G15" t="s">
         <v>84</v>
       </c>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1420,8 +1446,9 @@
       <c r="G16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1443,8 +1470,9 @@
       <c r="G17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1467,7 +1495,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1490,7 +1518,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1513,7 +1541,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1536,7 +1564,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1558,8 +1586,9 @@
       <c r="G22" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1581,8 +1610,9 @@
       <c r="G23" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1604,8 +1634,9 @@
       <c r="G24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1628,7 +1659,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1651,7 +1682,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1674,7 +1705,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -1697,7 +1728,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1720,7 +1751,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -1743,7 +1774,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2079,6 +2110,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/wiring_connections.xlsx
+++ b/wiring_connections.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c3132704\Documents\GitHub\NU-Racing---ETC-and-manumatic-Electronics\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26221"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="23940" windowHeight="15060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="conns" sheetId="1" r:id="rId1"/>
     <sheet name="connectors" sheetId="2" r:id="rId2"/>
+    <sheet name="LOOKUP" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">connectors!$A$1:$H$49</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="98">
   <si>
     <t>GS MODULE</t>
   </si>
@@ -132,9 +131,6 @@
     <t>DEST</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>DTM</t>
   </si>
   <si>
@@ -156,12 +152,6 @@
     <t>ECU</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>DTHD</t>
   </si>
   <si>
@@ -225,9 +215,6 @@
     <t>MODE_KN</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>MODULE</t>
   </si>
   <si>
@@ -289,13 +276,58 @@
   </si>
   <si>
     <t>POSS CONS</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>Additional DS button on clutch post</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>GREY</t>
+  </si>
+  <si>
+    <t>BLK</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>BRN</t>
+  </si>
+  <si>
+    <t>GRN</t>
+  </si>
+  <si>
+    <t>BLUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +339,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -389,8 +437,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -409,7 +459,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,7 +520,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,7 +555,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -680,7 +732,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -694,18 +746,18 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="51.75" customHeight="1">
       <c r="B1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -717,13 +769,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -735,7 +787,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -747,7 +799,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -759,7 +811,7 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -771,7 +823,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -783,37 +835,37 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="D15" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -825,7 +877,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -837,7 +889,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -852,7 +904,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -864,13 +916,13 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -882,7 +934,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -894,7 +946,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -909,7 +961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -921,16 +973,16 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -947,7 +999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -964,7 +1016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -981,7 +1033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -998,7 +1050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1015,7 +1067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1032,7 +1084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1046,7 +1098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1063,36 +1115,41 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1103,1014 +1160,1329 @@
         <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
         <v>83</v>
       </c>
-      <c r="H1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
       <c r="E7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
       <c r="E8" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
       <c r="E9" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
         <v>67</v>
       </c>
-      <c r="G13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f>VLOOKUP(I18,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="K18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f>VLOOKUP(I19,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="K19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>VLOOKUP(I20,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="K20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B21">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f>VLOOKUP(I21,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="K21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B22">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22">
+        <f>VLOOKUP(I22,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>1000</v>
+      </c>
+      <c r="K22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B23">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23">
+        <f>VLOOKUP(I23,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>1000</v>
+      </c>
+      <c r="K23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24">
+        <f>VLOOKUP(I24,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>1000</v>
+      </c>
+      <c r="K24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B25">
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="I25" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25">
+        <f>VLOOKUP(I25,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>3000</v>
+      </c>
+      <c r="K25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B26">
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E26" s="10">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="I26" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26">
+        <f>VLOOKUP(I26,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>3000</v>
+      </c>
+      <c r="K26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E28" s="10">
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="I28" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28">
+        <f>VLOOKUP(I28,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>3000</v>
+      </c>
+      <c r="K28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E29" s="10">
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="I29" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29">
+        <f>VLOOKUP(I29,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>3000</v>
+      </c>
+      <c r="K29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="I30" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30">
+        <f>VLOOKUP(I30,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>3000</v>
+      </c>
+      <c r="K30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J31">
+        <v>2000</v>
+      </c>
+      <c r="K31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J32">
+        <v>2000</v>
+      </c>
+      <c r="K32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="I33" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33">
+        <f>VLOOKUP(I33,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>3000</v>
+      </c>
+      <c r="K33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="I34" t="s">
+        <v>86</v>
+      </c>
+      <c r="J34">
+        <f>VLOOKUP(I34,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>3000</v>
+      </c>
+      <c r="K34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35">
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="I35" t="s">
+        <v>86</v>
+      </c>
+      <c r="J35">
+        <f>VLOOKUP(I35,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>3000</v>
+      </c>
+      <c r="K35" t="s">
+        <v>87</v>
+      </c>
+      <c r="M35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36">
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="I36" t="s">
+        <v>86</v>
+      </c>
+      <c r="J36">
+        <f>VLOOKUP(I36,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>3000</v>
+      </c>
+      <c r="K36" t="s">
+        <v>87</v>
+      </c>
+      <c r="M36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G37" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <f>VLOOKUP(I37,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="K37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38">
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <f>VLOOKUP(I38,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="K38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39">
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G39" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <f>VLOOKUP(I39,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G41" t="s">
+        <v>81</v>
+      </c>
+      <c r="I41" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J41" s="7">
+        <f>VLOOKUP(I41,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>1000</v>
+      </c>
+      <c r="K41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
         <v>44</v>
       </c>
-      <c r="D42" t="s">
-        <v>47</v>
-      </c>
       <c r="E42" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G42" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J42" s="7">
+        <f>VLOOKUP(I42,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>1000</v>
+      </c>
+      <c r="K42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G43" t="s">
+        <v>81</v>
+      </c>
+      <c r="I43" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J43" s="7">
+        <f>VLOOKUP(I43,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>1000</v>
+      </c>
+      <c r="K43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B44">
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G46" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>85</v>
+      </c>
+      <c r="J46" s="7">
+        <f>VLOOKUP(I46,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>1000</v>
+      </c>
+      <c r="K46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E47" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" t="s">
+        <v>81</v>
+      </c>
+      <c r="I47" t="s">
+        <v>85</v>
+      </c>
+      <c r="J47" s="7">
+        <f>VLOOKUP(I47,LOOKUP!$A$1:$B$3,2,0)</f>
+        <v>1000</v>
+      </c>
+      <c r="K47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
         <v>46</v>
       </c>
-      <c r="F47" t="s">
-        <v>76</v>
-      </c>
-      <c r="G47" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
       <c r="B49">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3">
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/wiring_connections.xlsx
+++ b/wiring_connections.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26221"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francisconroy/Documents/repos/NU-Racing---ETC-and-manumatic-Electronics/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="560" yWindow="560" windowWidth="23940" windowHeight="15060" activeTab="1"/>
   </bookViews>
@@ -12,15 +17,12 @@
     <sheet name="LOOKUP" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">connectors!$A$1:$H$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">connectors!$A$1:$O$49</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -327,7 +329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +357,12 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -428,12 +436,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -442,22 +465,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -469,9 +493,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -732,7 +753,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -746,7 +767,7 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
@@ -755,7 +776,7 @@
     <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="51.75" customHeight="1">
+    <row r="1" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>54</v>
       </c>
@@ -769,13 +790,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -787,7 +808,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -799,7 +820,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -809,9 +830,9 @@
       <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -821,9 +842,9 @@
       <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -833,39 +854,39 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="D15" s="5"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -877,7 +898,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -889,7 +910,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -904,7 +925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -916,13 +937,13 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -934,7 +955,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -946,7 +967,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -961,7 +982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -973,16 +994,16 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -999,7 +1020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1016,7 +1037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1033,7 +1054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1050,7 +1071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1067,7 +1088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1084,7 +1105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1098,7 +1119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1115,18 +1136,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1135,13 +1151,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
@@ -1149,1297 +1165,1633 @@
     <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="G2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="G3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="G4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="G5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="G6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
+      <c r="G7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
+      <c r="G8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
+      <c r="G9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+      <c r="G10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+      <c r="G11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
+      <c r="G12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
+      <c r="G13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
+      <c r="G15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
+      <c r="G16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
+      <c r="G17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="G18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="5">
         <f>VLOOKUP(I18,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>1500</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>5</v>
       </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G19" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="G19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="5">
         <f>VLOOKUP(I19,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>1500</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>6</v>
       </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G20" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="G20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="5">
         <f>VLOOKUP(I20,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>1500</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>7</v>
       </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="G21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="5">
         <f>VLOOKUP(I21,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>1500</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>8</v>
       </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G22" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" t="s">
+      <c r="G22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="5">
         <f>VLOOKUP(I22,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>1000</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>9</v>
       </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" t="s">
+      <c r="G23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="5">
         <f>VLOOKUP(I23,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>1000</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>10</v>
       </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" t="s">
+      <c r="G24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="5">
         <f>VLOOKUP(I24,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>1000</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>11</v>
       </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G25" t="s">
-        <v>80</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="G25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="5">
         <f>VLOOKUP(I25,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>3000</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>12</v>
       </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="11">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G26" t="s">
-        <v>80</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="G26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="5">
         <f>VLOOKUP(I26,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>3000</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="11">
         <v>2</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="G28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="5">
         <f>VLOOKUP(I28,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>3000</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="11">
         <v>3</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G29" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="G29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="5">
         <f>VLOOKUP(I29,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>3000</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>3</v>
       </c>
-      <c r="C30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G30" t="s">
-        <v>80</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="G30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="5">
         <f>VLOOKUP(I30,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>3000</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
         <v>4</v>
       </c>
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G31" t="s">
-        <v>80</v>
-      </c>
-      <c r="J31">
+      <c r="G31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5">
         <v>2000</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>5</v>
       </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G32" t="s">
-        <v>80</v>
-      </c>
-      <c r="J32">
+      <c r="G32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5">
         <v>2000</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" t="s">
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="5">
         <v>6</v>
       </c>
-      <c r="C33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G33" t="s">
-        <v>80</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="G33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="5">
         <f>VLOOKUP(I33,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>3000</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" t="s">
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>7</v>
       </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G34" t="s">
-        <v>80</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="G34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="5">
         <f>VLOOKUP(I34,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>3000</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" t="s">
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5">
         <v>8</v>
       </c>
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G35" t="s">
-        <v>80</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="G35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="5">
         <f>VLOOKUP(I35,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>3000</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="M35" t="s">
+      <c r="L35" s="5"/>
+      <c r="M35" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" t="s">
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <v>9</v>
       </c>
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G36" t="s">
-        <v>80</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="G36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="5">
         <f>VLOOKUP(I36,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>3000</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="M36" t="s">
+      <c r="L36" s="5"/>
+      <c r="M36" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" t="s">
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5">
         <v>10</v>
       </c>
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G37" t="s">
-        <v>80</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="G37" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="5">
         <f>VLOOKUP(I37,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>1500</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" t="s">
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>11</v>
       </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G38" t="s">
-        <v>80</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="G38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="5">
         <f>VLOOKUP(I38,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>1500</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" t="s">
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="5">
         <v>12</v>
       </c>
-      <c r="C39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G39" t="s">
-        <v>80</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="G39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="5">
         <f>VLOOKUP(I39,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>1500</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" t="s">
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="5">
         <v>1</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I41" t="s">
+      <c r="H41" s="5"/>
+      <c r="I41" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="6">
         <f>VLOOKUP(I41,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>1000</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" t="s">
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5">
         <v>2</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I42" t="s">
+      <c r="H42" s="5"/>
+      <c r="I42" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="6">
         <f>VLOOKUP(I42,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>1000</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" t="s">
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="5">
         <v>3</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I43" t="s">
+      <c r="H43" s="5"/>
+      <c r="I43" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="6">
         <f>VLOOKUP(I43,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>1000</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" t="s">
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <v>4</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" t="s">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" t="s">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5">
         <v>6</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="6">
         <f>VLOOKUP(I46,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>1000</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" t="s">
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="5">
         <v>7</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I47" t="s">
+      <c r="H47" s="5"/>
+      <c r="I47" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="6">
         <f>VLOOKUP(I47,LOOKUP!$A$1:$B$3,2,0)</f>
         <v>1000</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" t="s">
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="5">
         <v>8</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="5">
         <v>9</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" scale="66" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -2451,9 +2803,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -2461,7 +2813,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2469,7 +2821,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -2479,10 +2831,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>